--- a/mappingCorps/ig/StructureDefinition-fr-lm-evaluation.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-evaluation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-16T14:59:20+00:00</t>
+    <t>2026-01-22T09:24:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-evaluation.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-evaluation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-22T09:24:45+00:00</t>
+    <t>2026-01-22T13:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-evaluation.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-evaluation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-22T13:29:51+00:00</t>
+    <t>2026-01-26T10:27:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-evaluation.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-evaluation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-26T10:27:23+00:00</t>
+    <t>2026-02-03T11:02:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-evaluation.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-evaluation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="118">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-03T11:02:09+00:00</t>
+    <t>2026-02-04T10:58:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -298,6 +298,16 @@
   <si>
     <t xml:space="preserve">dateTime
 </t>
+  </si>
+  <si>
+    <t>fr-lm-evaluation.valeur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base
+</t>
+  </si>
+  <si>
+    <t>Valeur de l'évaluation</t>
   </si>
   <si>
     <t>fr-lm-evaluation.interpretation</t>
@@ -674,7 +684,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ15"/>
+  <dimension ref="A1:AJ16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1443,7 +1453,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>79</v>
@@ -1458,13 +1468,13 @@
         <v>73</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1518,7 +1528,7 @@
         <v>93</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>79</v>
@@ -1532,10 +1542,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1558,7 +1568,7 @@
         <v>73</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>97</v>
@@ -1615,7 +1625,7 @@
         <v>73</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>74</v>
@@ -1758,13 +1768,13 @@
         <v>73</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1832,10 +1842,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1846,7 +1856,7 @@
         <v>74</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>73</v>
@@ -1858,7 +1868,7 @@
         <v>73</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>105</v>
@@ -1915,13 +1925,13 @@
         <v>73</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>73</v>
@@ -1946,7 +1956,7 @@
         <v>74</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>73</v>
@@ -2021,7 +2031,7 @@
         <v>74</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>73</v>
@@ -2046,7 +2056,7 @@
         <v>74</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>73</v>
@@ -2121,7 +2131,7 @@
         <v>74</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>73</v>
@@ -2227,6 +2237,106 @@
         <v>73</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>73</v>
       </c>
     </row>
